--- a/biology/Médecine/Jamais_sans_mon_psy/Jamais_sans_mon_psy.xlsx
+++ b/biology/Médecine/Jamais_sans_mon_psy/Jamais_sans_mon_psy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jamais sans mon psy est un film français réalisé par Arnaud Lemort dont la sortie est prévue en 2024.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Jamais sans mon psy
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christian Clavier : Olivier Béranger
 Claire Chust : Alice
@@ -623,10 +641,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Attribution des rôles
-Tournage
-Le tournage commence le 22 mai 2023 et a notamment lieu dans la région Auvergne-Rhône-Alpes dans la ville de Thonon-les-Bains[1]. Les prises de vues se poursuivent jusqu'au 12 juillet 2023[2].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence le 22 mai 2023 et a notamment lieu dans la région Auvergne-Rhône-Alpes dans la ville de Thonon-les-Bains. Les prises de vues se poursuivent jusqu'au 12 juillet 2023.
 </t>
         </is>
       </c>
